--- a/Documentatie/Planning + Taakverdeling.xlsx
+++ b/Documentatie/Planning + Taakverdeling.xlsx
@@ -199,9 +199,6 @@
     <t>Analyse 1 (Do)</t>
   </si>
   <si>
-    <t>&lt;&lt; deze rij moet mis onder kopje docu</t>
-  </si>
-  <si>
     <t>Inleveren kleur anders?</t>
   </si>
   <si>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>Joshua, Remco, Melinda, Arjen, Jeffrey en Yme</t>
+  </si>
+  <si>
+    <t>&lt;&lt; zie verslag_onderdelen.doc</t>
   </si>
 </sst>
 </file>
@@ -450,42 +450,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,32 +490,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -873,28 +873,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47:O47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="18" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -905,62 +905,62 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="28">
+      <c r="F5" s="16">
         <v>46</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="17">
         <v>47</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="18">
         <v>48</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="19">
         <v>49</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="20">
         <v>50</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="21">
         <v>51</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="22">
         <v>52</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="23">
         <v>1</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="24">
         <v>2</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
@@ -968,440 +968,437 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="52"/>
+      <c r="M6" s="51"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="38"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="38"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="38"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="38"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="S12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="38"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="38"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="38"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="3"/>
       <c r="O15" s="2"/>
-      <c r="Q15" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="38"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="38"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="38"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="38"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="10"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="S23" t="s">
         <v>14</v>
       </c>
       <c r="U23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="40"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="28"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="38"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="3"/>
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
       <c r="S27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="40"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="28"/>
       <c r="S28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1409,86 +1406,89 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
       <c r="N29" s="12"/>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="40"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="28"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="40"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="28"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="38"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="40"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="28"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="38"/>
+      <c r="A33" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="40"/>
+      <c r="O33" s="28"/>
+      <c r="S33" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1498,20 +1498,20 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="18"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K36" s="18"/>
+      <c r="K36" s="37"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="S39" t="s">
@@ -1519,13 +1519,13 @@
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -1535,324 +1535,324 @@
       <c r="E43" s="8"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
-      <c r="J45" s="22" t="s">
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
+      <c r="J45" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="24"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="50"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="27"/>
-      <c r="J46" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="27"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="42"/>
+      <c r="J46" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="42"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="27"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="27"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="42"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="42"/>
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="27"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="27"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="42"/>
       <c r="W48" s="14"/>
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="27"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="27"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="42"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="42"/>
       <c r="W49" s="14"/>
       <c r="X49" s="14"/>
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="27"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="27"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="42"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="42"/>
       <c r="W50" s="14"/>
       <c r="X50" s="14"/>
       <c r="Y50" s="14"/>
       <c r="Z50" s="14"/>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="27"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="27"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="42"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="42"/>
       <c r="W51" s="14"/>
       <c r="X51" s="14"/>
       <c r="Y51" s="14"/>
       <c r="Z51" s="14"/>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="27"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="27"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="42"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="42"/>
       <c r="W52" s="14"/>
       <c r="X52" s="14"/>
       <c r="Y52" s="14"/>
       <c r="Z52" s="14"/>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="27"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="27"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="42"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="42"/>
       <c r="W53" s="13"/>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="27"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="27"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="42"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="42"/>
       <c r="W54" s="14"/>
       <c r="X54" s="14"/>
       <c r="Y54" s="14"/>
       <c r="Z54" s="14"/>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="27"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="27"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="42"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="42"/>
       <c r="W55" s="14"/>
       <c r="X55" s="14"/>
       <c r="Y55" s="14"/>
       <c r="Z55" s="14"/>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="27"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="27"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="42"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="42"/>
       <c r="W56" s="13"/>
       <c r="X56" s="13"/>
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="27"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="27"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="42"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="42"/>
       <c r="W57" s="13"/>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="27"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="27"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="42"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="42"/>
       <c r="W58" s="13"/>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="27"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="27"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="42"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="42"/>
       <c r="W59" s="13"/>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="27"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="27"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="42"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="42"/>
       <c r="W60" s="13"/>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="27"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="27"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="42"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="42"/>
       <c r="W61" s="13"/>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="27"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="27"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="42"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="42"/>
       <c r="W62" s="15"/>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
@@ -1872,13 +1872,6 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="L6:M33"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
@@ -1887,6 +1880,7 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="J62:O62"/>
     <mergeCell ref="B60:G60"/>
     <mergeCell ref="B61:G61"/>
@@ -1911,7 +1905,6 @@
     <mergeCell ref="B53:G53"/>
     <mergeCell ref="B54:G54"/>
     <mergeCell ref="B55:G55"/>
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="J50:O50"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="J36:K36"/>
@@ -1927,8 +1920,7 @@
     <mergeCell ref="B46:G46"/>
     <mergeCell ref="B47:G47"/>
     <mergeCell ref="B48:G48"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="L6:M33"/>
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A22:D22"/>
@@ -1940,12 +1932,20 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <conditionalFormatting sqref="I22:J22">
     <cfRule type="colorScale" priority="46">

--- a/Documentatie/Planning + Taakverdeling.xlsx
+++ b/Documentatie/Planning + Taakverdeling.xlsx
@@ -490,59 +490,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -874,27 +874,27 @@
   <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -905,23 +905,23 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="38"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="2"/>
       <c r="F5" s="16">
         <v>46</v>
@@ -955,12 +955,12 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
@@ -968,20 +968,20 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="51"/>
+      <c r="M6" s="44"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="2"/>
       <c r="F7" s="26"/>
       <c r="G7" s="3"/>
@@ -989,18 +989,18 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="2"/>
       <c r="F8" s="26"/>
       <c r="G8" s="2"/>
@@ -1008,18 +1008,18 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="2"/>
       <c r="F9" s="26"/>
       <c r="G9" s="2"/>
@@ -1027,18 +1027,18 @@
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="2"/>
       <c r="F10" s="26"/>
       <c r="G10" s="2"/>
@@ -1046,18 +1046,18 @@
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="2"/>
       <c r="F11" s="26"/>
       <c r="G11" s="2"/>
@@ -1065,18 +1065,18 @@
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="2"/>
       <c r="F12" s="26"/>
       <c r="G12" s="2"/>
@@ -1084,8 +1084,8 @@
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="S12" t="s">
@@ -1093,12 +1093,12 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="2"/>
       <c r="F13" s="26"/>
       <c r="G13" s="2"/>
@@ -1106,18 +1106,18 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="2"/>
       <c r="F14" s="26"/>
       <c r="G14" s="2"/>
@@ -1125,8 +1125,8 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
@@ -1144,18 +1144,18 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
       <c r="N15" s="3"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="2"/>
       <c r="F16" s="26"/>
       <c r="G16" s="2"/>
@@ -1163,18 +1163,18 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="2"/>
       <c r="F17" s="26"/>
       <c r="G17" s="2"/>
@@ -1182,16 +1182,16 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="2"/>
       <c r="F18" s="26"/>
       <c r="G18" s="2"/>
@@ -1199,52 +1199,45 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="2"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1252,16 +1245,16 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1269,18 +1262,18 @@
       <c r="I22" s="30"/>
       <c r="J22" s="31"/>
       <c r="K22" s="33"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
@@ -1288,8 +1281,8 @@
       <c r="I23" s="3"/>
       <c r="J23" s="10"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="S23" t="s">
@@ -1300,10 +1293,10 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1311,16 +1304,16 @@
       <c r="I24" s="26"/>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1328,18 +1321,18 @@
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
       <c r="N25" s="27"/>
       <c r="O25" s="28"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1347,16 +1340,16 @@
       <c r="I26" s="3"/>
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1364,8 +1357,8 @@
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
       <c r="N27" s="33"/>
       <c r="O27" s="33"/>
       <c r="S27" t="s">
@@ -1373,10 +1366,10 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1384,8 +1377,8 @@
       <c r="I28" s="26"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
       <c r="N28" s="31"/>
       <c r="O28" s="28"/>
       <c r="S28" t="s">
@@ -1393,12 +1386,12 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1406,18 +1399,18 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
       <c r="N29" s="12"/>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1425,18 +1418,18 @@
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
       <c r="N30" s="31"/>
       <c r="O30" s="28"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1444,18 +1437,18 @@
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
       <c r="N31" s="31"/>
       <c r="O31" s="28"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="26"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1463,18 +1456,18 @@
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
       <c r="N32" s="27"/>
       <c r="O32" s="28"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="26"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1482,8 +1475,8 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
       <c r="N33" s="12"/>
       <c r="O33" s="28"/>
       <c r="S33" t="s">
@@ -1498,20 +1491,20 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="37"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="37"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="37" t="s">
+      <c r="J36" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K36" s="37"/>
+      <c r="K36" s="40"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="S39" t="s">
@@ -1519,13 +1512,13 @@
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -1535,324 +1528,324 @@
       <c r="E43" s="8"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
-      <c r="J45" s="48" t="s">
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
+      <c r="J45" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="50"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="43"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
-      <c r="J46" s="40" t="s">
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
+      <c r="J46" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="42"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="38"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B47" s="40"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="42"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="42"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="38"/>
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B48" s="40"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="42"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="42"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="38"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="38"/>
       <c r="W48" s="14"/>
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B49" s="40"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="42"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="42"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="38"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="38"/>
       <c r="W49" s="14"/>
       <c r="X49" s="14"/>
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B50" s="40"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="42"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="42"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="38"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="38"/>
       <c r="W50" s="14"/>
       <c r="X50" s="14"/>
       <c r="Y50" s="14"/>
       <c r="Z50" s="14"/>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B51" s="40"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="42"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="42"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="38"/>
       <c r="W51" s="14"/>
       <c r="X51" s="14"/>
       <c r="Y51" s="14"/>
       <c r="Z51" s="14"/>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B52" s="40"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="42"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="42"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="38"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="38"/>
       <c r="W52" s="14"/>
       <c r="X52" s="14"/>
       <c r="Y52" s="14"/>
       <c r="Z52" s="14"/>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B53" s="40"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="42"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="42"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="38"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="38"/>
       <c r="W53" s="13"/>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B54" s="40"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="42"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="42"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="38"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="38"/>
       <c r="W54" s="14"/>
       <c r="X54" s="14"/>
       <c r="Y54" s="14"/>
       <c r="Z54" s="14"/>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B55" s="40"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="42"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="42"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="38"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="38"/>
       <c r="W55" s="14"/>
       <c r="X55" s="14"/>
       <c r="Y55" s="14"/>
       <c r="Z55" s="14"/>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B56" s="40"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="42"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="42"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="38"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="38"/>
       <c r="W56" s="13"/>
       <c r="X56" s="13"/>
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B57" s="40"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="42"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="42"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="38"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="38"/>
       <c r="W57" s="13"/>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B58" s="40"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="42"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="42"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="38"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="38"/>
       <c r="W58" s="13"/>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B59" s="40"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="42"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="42"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="38"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="38"/>
       <c r="W59" s="13"/>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B60" s="40"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="42"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="42"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="38"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="38"/>
       <c r="W60" s="13"/>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B61" s="40"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="42"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="42"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="38"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="38"/>
       <c r="W61" s="13"/>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B62" s="40"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="42"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="42"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="38"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="38"/>
       <c r="W62" s="15"/>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
@@ -1872,15 +1865,48 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="J45:O45"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="L6:M33"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="J61:O61"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
     <mergeCell ref="J62:O62"/>
     <mergeCell ref="B60:G60"/>
     <mergeCell ref="B61:G61"/>
@@ -1897,55 +1923,22 @@
     <mergeCell ref="J60:O60"/>
     <mergeCell ref="B56:G56"/>
     <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="J61:O61"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="J45:O45"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="L6:M33"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <conditionalFormatting sqref="I22:J22">
     <cfRule type="colorScale" priority="46">
@@ -2127,7 +2120,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14 N14 H14 E14:F14">
+  <conditionalFormatting sqref="N14 J14 H14 E14:F14">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2187,7 +2180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12 N12 H12 E12:F12">
+  <conditionalFormatting sqref="N12 J12 H12 E12:F12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2235,7 +2228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10 N10 H10 E10:F10">
+  <conditionalFormatting sqref="N10 J10 H10 E10:F10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/Documentatie/Planning + Taakverdeling.xlsx
+++ b/Documentatie/Planning + Taakverdeling.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="28380" windowHeight="12465"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="24240" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Onderdeel:</t>
   </si>
@@ -216,12 +216,48 @@
   <si>
     <t>&lt;&lt; zie verslag_onderdelen.doc</t>
   </si>
+  <si>
+    <t>Projectleider</t>
+  </si>
+  <si>
+    <t>Melinda</t>
+  </si>
+  <si>
+    <t>Documentalist</t>
+  </si>
+  <si>
+    <t>Yme</t>
+  </si>
+  <si>
+    <t>Voorzitter</t>
+  </si>
+  <si>
+    <t>Notulist</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Remco, Yme, Joshua</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Arjen, Jeffrey, Melinda</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Yme, *N.N.B*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,59 +526,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -555,10 +591,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
-    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -585,9 +621,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -625,7 +661,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -659,7 +695,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -694,10 +729,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -870,33 +904,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53:O53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -904,24 +938,24 @@
       <c r="E3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="2"/>
       <c r="F5" s="16">
         <v>46</v>
@@ -954,13 +988,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:19">
+      <c r="A6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
@@ -968,20 +1002,20 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="51"/>
+      <c r="M6" s="44"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:19">
+      <c r="A7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="2"/>
       <c r="F7" s="26"/>
       <c r="G7" s="3"/>
@@ -989,18 +1023,18 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:19">
+      <c r="A8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="2"/>
       <c r="F8" s="26"/>
       <c r="G8" s="2"/>
@@ -1008,18 +1042,18 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:19">
+      <c r="A9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="2"/>
       <c r="F9" s="26"/>
       <c r="G9" s="2"/>
@@ -1027,18 +1061,18 @@
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:19">
+      <c r="A10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="2"/>
       <c r="F10" s="26"/>
       <c r="G10" s="2"/>
@@ -1046,18 +1080,18 @@
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:19">
+      <c r="A11" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="2"/>
       <c r="F11" s="26"/>
       <c r="G11" s="2"/>
@@ -1065,18 +1099,18 @@
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:19">
+      <c r="A12" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="2"/>
       <c r="F12" s="26"/>
       <c r="G12" s="2"/>
@@ -1084,21 +1118,21 @@
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="S12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:19">
+      <c r="A13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="2"/>
       <c r="F13" s="26"/>
       <c r="G13" s="2"/>
@@ -1106,18 +1140,18 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:19">
+      <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="2"/>
       <c r="F14" s="26"/>
       <c r="G14" s="2"/>
@@ -1125,12 +1159,12 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="52" t="s">
         <v>21</v>
       </c>
@@ -1144,18 +1178,18 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
       <c r="N15" s="3"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:19">
+      <c r="A16" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="2"/>
       <c r="F16" s="26"/>
       <c r="G16" s="2"/>
@@ -1163,18 +1197,18 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:21">
+      <c r="A17" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="2"/>
       <c r="F17" s="26"/>
       <c r="G17" s="2"/>
@@ -1182,16 +1216,16 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
+    <row r="18" spans="1:21">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="2"/>
       <c r="F18" s="26"/>
       <c r="G18" s="2"/>
@@ -1199,16 +1233,16 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
+    <row r="19" spans="1:21">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="2"/>
       <c r="F19" s="26"/>
       <c r="G19" s="3"/>
@@ -1216,18 +1250,18 @@
       <c r="I19" s="3"/>
       <c r="J19" s="4"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:21">
+      <c r="A20" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1235,16 +1269,16 @@
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+    <row r="21" spans="1:21">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1252,16 +1286,16 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
+    <row r="22" spans="1:21">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1269,18 +1303,18 @@
       <c r="I22" s="30"/>
       <c r="J22" s="31"/>
       <c r="K22" s="33"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:21">
+      <c r="A23" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
@@ -1288,8 +1322,8 @@
       <c r="I23" s="3"/>
       <c r="J23" s="10"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="S23" t="s">
@@ -1299,11 +1333,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
+    <row r="24" spans="1:21">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1311,16 +1345,16 @@
       <c r="I24" s="26"/>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
+    <row r="25" spans="1:21">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1328,18 +1362,18 @@
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
       <c r="N25" s="27"/>
       <c r="O25" s="28"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:21">
+      <c r="A26" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1347,16 +1381,16 @@
       <c r="I26" s="3"/>
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
+    <row r="27" spans="1:21">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1364,19 +1398,19 @@
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
       <c r="N27" s="33"/>
       <c r="O27" s="33"/>
       <c r="S27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+    <row r="28" spans="1:21">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1384,21 +1418,21 @@
       <c r="I28" s="26"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
       <c r="N28" s="31"/>
       <c r="O28" s="28"/>
       <c r="S28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+    <row r="29" spans="1:21">
+      <c r="A29" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1406,18 +1440,18 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
       <c r="N29" s="12"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+    <row r="30" spans="1:21">
+      <c r="A30" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1425,18 +1459,18 @@
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
       <c r="N30" s="31"/>
       <c r="O30" s="28"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
+    <row r="31" spans="1:21">
+      <c r="A31" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1444,18 +1478,18 @@
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
       <c r="N31" s="31"/>
       <c r="O31" s="28"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+    <row r="32" spans="1:21">
+      <c r="A32" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="26"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1463,18 +1497,18 @@
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
       <c r="N32" s="27"/>
       <c r="O32" s="28"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+    <row r="33" spans="1:26">
+      <c r="A33" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="26"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1482,389 +1516,417 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
       <c r="N33" s="12"/>
       <c r="O33" s="28"/>
       <c r="S33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26">
       <c r="C36" s="5"/>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="37"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="37"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="37" t="s">
+      <c r="J36" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K36" s="37"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K36" s="40"/>
+    </row>
+    <row r="39" spans="1:26">
       <c r="S39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+    <row r="42" spans="1:26">
+      <c r="A42" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B45" s="48" t="s">
+    <row r="45" spans="1:26">
+      <c r="B45" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
-      <c r="J45" s="48" t="s">
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
+      <c r="J45" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="50"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B46" s="40" t="s">
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="43"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="B46" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
-      <c r="J46" s="40" t="s">
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
+      <c r="J46" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="42"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B47" s="40"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="42"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="42"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="38"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="B47" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="J47" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="38"/>
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B48" s="40"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="42"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="42"/>
+    <row r="48" spans="1:26">
+      <c r="B48" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="38"/>
+      <c r="J48" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="38"/>
       <c r="W48" s="14"/>
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B49" s="40"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="42"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="42"/>
+    <row r="49" spans="2:26">
+      <c r="B49" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="38"/>
+      <c r="J49" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="38"/>
       <c r="W49" s="14"/>
       <c r="X49" s="14"/>
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B50" s="40"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="42"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="42"/>
+    <row r="50" spans="2:26">
+      <c r="B50" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="38"/>
+      <c r="J50" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="38"/>
       <c r="W50" s="14"/>
       <c r="X50" s="14"/>
       <c r="Y50" s="14"/>
       <c r="Z50" s="14"/>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B51" s="40"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="42"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="42"/>
+    <row r="51" spans="2:26">
+      <c r="B51" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
+      <c r="J51" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="38"/>
       <c r="W51" s="14"/>
       <c r="X51" s="14"/>
       <c r="Y51" s="14"/>
       <c r="Z51" s="14"/>
     </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B52" s="40"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="42"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="42"/>
+    <row r="52" spans="2:26">
+      <c r="B52" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="38"/>
+      <c r="J52" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="38"/>
       <c r="W52" s="14"/>
       <c r="X52" s="14"/>
       <c r="Y52" s="14"/>
       <c r="Z52" s="14"/>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B53" s="40"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="42"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="42"/>
+    <row r="53" spans="2:26">
+      <c r="B53" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="38"/>
+      <c r="J53" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="38"/>
       <c r="W53" s="13"/>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
     </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B54" s="40"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="42"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="42"/>
+    <row r="54" spans="2:26">
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="38"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="38"/>
       <c r="W54" s="14"/>
       <c r="X54" s="14"/>
       <c r="Y54" s="14"/>
       <c r="Z54" s="14"/>
     </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B55" s="40"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="42"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="42"/>
+    <row r="55" spans="2:26">
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="38"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="38"/>
       <c r="W55" s="14"/>
       <c r="X55" s="14"/>
       <c r="Y55" s="14"/>
       <c r="Z55" s="14"/>
     </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B56" s="40"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="42"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="42"/>
+    <row r="56" spans="2:26">
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="38"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="38"/>
       <c r="W56" s="13"/>
       <c r="X56" s="13"/>
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
     </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B57" s="40"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="42"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="42"/>
+    <row r="57" spans="2:26">
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="38"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="38"/>
       <c r="W57" s="13"/>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
     </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B58" s="40"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="42"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="42"/>
+    <row r="58" spans="2:26">
+      <c r="B58" s="36"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="38"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="38"/>
       <c r="W58" s="13"/>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B59" s="40"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="42"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="42"/>
+    <row r="59" spans="2:26">
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="38"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="38"/>
       <c r="W59" s="13"/>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
     </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B60" s="40"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="42"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="42"/>
+    <row r="60" spans="2:26">
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="38"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="38"/>
       <c r="W60" s="13"/>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B61" s="40"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="42"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="42"/>
+    <row r="61" spans="2:26">
+      <c r="B61" s="36"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="38"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="38"/>
       <c r="W61" s="13"/>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
     </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B62" s="40"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="42"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="42"/>
+    <row r="62" spans="2:26">
+      <c r="B62" s="36"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="38"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="38"/>
       <c r="W62" s="15"/>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
     </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:26">
       <c r="W63" s="14"/>
       <c r="X63" s="14"/>
       <c r="Y63" s="14"/>
       <c r="Z63" s="14"/>
     </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:26">
       <c r="W64" s="14"/>
       <c r="X64" s="14"/>
       <c r="Y64" s="14"/>
@@ -1872,15 +1934,48 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="J45:O45"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="L6:M33"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="J61:O61"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
     <mergeCell ref="J62:O62"/>
     <mergeCell ref="B60:G60"/>
     <mergeCell ref="B61:G61"/>
@@ -1897,62 +1992,29 @@
     <mergeCell ref="J60:O60"/>
     <mergeCell ref="B56:G56"/>
     <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="J61:O61"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="J45:O45"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="L6:M33"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <conditionalFormatting sqref="I22:J22">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1962,9 +2024,9 @@
   <conditionalFormatting sqref="H23">
     <cfRule type="colorScale" priority="43">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1974,9 +2036,9 @@
   <conditionalFormatting sqref="H24">
     <cfRule type="colorScale" priority="42">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1986,9 +2048,9 @@
   <conditionalFormatting sqref="H25">
     <cfRule type="colorScale" priority="41">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -1998,9 +2060,9 @@
   <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2010,9 +2072,9 @@
   <conditionalFormatting sqref="F20:G20">
     <cfRule type="colorScale" priority="31">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2022,9 +2084,9 @@
   <conditionalFormatting sqref="F21:G21">
     <cfRule type="colorScale" priority="30">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2034,9 +2096,9 @@
   <conditionalFormatting sqref="G8">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2046,9 +2108,9 @@
   <conditionalFormatting sqref="I15:I17 I13">
     <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2058,9 +2120,9 @@
   <conditionalFormatting sqref="I11">
     <cfRule type="colorScale" priority="24">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2070,9 +2132,9 @@
   <conditionalFormatting sqref="K15">
     <cfRule type="colorScale" priority="23">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2082,9 +2144,9 @@
   <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2094,9 +2156,9 @@
   <conditionalFormatting sqref="K17">
     <cfRule type="colorScale" priority="21">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2106,9 +2168,9 @@
   <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2118,21 +2180,21 @@
   <conditionalFormatting sqref="K19">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14 N14 H14 E14:F14">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14 J14 H14 E14:F14">
     <cfRule type="colorScale" priority="13">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2142,9 +2204,9 @@
   <conditionalFormatting sqref="G14">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2154,9 +2216,9 @@
   <conditionalFormatting sqref="K14">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2166,9 +2228,9 @@
   <conditionalFormatting sqref="I14">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2178,21 +2240,21 @@
   <conditionalFormatting sqref="I18:I19">
     <cfRule type="colorScale" priority="96">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12 N12 H12 E12:F12">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12 J12 H12 E12:F12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2202,9 +2264,9 @@
   <conditionalFormatting sqref="I12">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2214,9 +2276,9 @@
   <conditionalFormatting sqref="G12">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2226,21 +2288,21 @@
   <conditionalFormatting sqref="K12">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10 N10 H10 E10:F10">
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10 J10 H10 E10:F10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2250,9 +2312,9 @@
   <conditionalFormatting sqref="I10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2262,9 +2324,9 @@
   <conditionalFormatting sqref="G10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2274,9 +2336,9 @@
   <conditionalFormatting sqref="K10">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2286,9 +2348,9 @@
   <conditionalFormatting sqref="G15:G19 G9 G13 G11">
     <cfRule type="colorScale" priority="175">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2298,9 +2360,9 @@
   <conditionalFormatting sqref="A32:K33 K22:K25 A23:D23 E26:K26 A28:J28 E27:J27 E22:H25 A24 A26 J23:J25 A5:E5 E6:L6 A20:E21 A29:K29 H7:K7 E7:F9 H20:K20 I8:K8 H9 J9:K9 J13 K11 N6:N9 N15:N20 J15:J19 H15:H19 E15:F19 N13 H13 E13:F13 N11 H11 E11:F11 A30:A31 E30:K31">
     <cfRule type="colorScale" priority="176">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2313,14 +2375,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28:G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2328,12 +2390,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentatie/Planning + Taakverdeling.xlsx
+++ b/Documentatie/Planning + Taakverdeling.xlsx
@@ -529,22 +529,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -558,27 +579,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -907,28 +907,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53:O53"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1"/>
@@ -939,23 +939,23 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="50" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="2"/>
       <c r="F5" s="16">
         <v>46</v>
@@ -1002,10 +1002,10 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="44"/>
+      <c r="M6" s="51"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
@@ -1023,8 +1023,8 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
@@ -1042,8 +1042,8 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
@@ -1061,8 +1061,8 @@
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
@@ -1080,8 +1080,8 @@
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
@@ -1099,8 +1099,8 @@
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
@@ -1118,8 +1118,8 @@
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="S12" t="s">
@@ -1140,8 +1140,8 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
@@ -1159,8 +1159,8 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
@@ -1178,8 +1178,8 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="3"/>
       <c r="O15" s="2"/>
     </row>
@@ -1197,8 +1197,8 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
@@ -1216,16 +1216,16 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="2"/>
       <c r="F18" s="26"/>
       <c r="G18" s="2"/>
@@ -1233,46 +1233,46 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="2"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="34"/>
@@ -1286,16 +1286,16 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1303,18 +1303,18 @@
       <c r="I22" s="30"/>
       <c r="J22" s="31"/>
       <c r="K22" s="33"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
@@ -1322,8 +1322,8 @@
       <c r="I23" s="3"/>
       <c r="J23" s="10"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="S23" t="s">
@@ -1345,16 +1345,16 @@
       <c r="I24" s="26"/>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1362,18 +1362,18 @@
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="27"/>
       <c r="O25" s="28"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1381,16 +1381,16 @@
       <c r="I26" s="3"/>
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1398,8 +1398,8 @@
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
       <c r="N27" s="33"/>
       <c r="O27" s="33"/>
       <c r="S27" t="s">
@@ -1407,10 +1407,10 @@
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1418,8 +1418,8 @@
       <c r="I28" s="26"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
       <c r="N28" s="31"/>
       <c r="O28" s="28"/>
       <c r="S28" t="s">
@@ -1427,12 +1427,12 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1440,18 +1440,18 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
       <c r="N29" s="12"/>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1459,18 +1459,18 @@
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
       <c r="N30" s="31"/>
       <c r="O30" s="28"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1478,18 +1478,18 @@
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
       <c r="N31" s="31"/>
       <c r="O31" s="28"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="26"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1497,18 +1497,18 @@
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="26"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
       <c r="N32" s="27"/>
       <c r="O32" s="28"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="26"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1516,8 +1516,8 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
       <c r="N33" s="12"/>
       <c r="O33" s="28"/>
       <c r="S33" t="s">
@@ -1532,20 +1532,20 @@
     </row>
     <row r="36" spans="1:26">
       <c r="C36" s="5"/>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="40"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="40"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="40" t="s">
+      <c r="J36" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K36" s="40"/>
+      <c r="K36" s="35"/>
     </row>
     <row r="39" spans="1:26">
       <c r="S39" t="s">
@@ -1553,13 +1553,13 @@
       </c>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
     </row>
     <row r="43" spans="1:26">
       <c r="A43" s="8"/>
@@ -1569,352 +1569,352 @@
       <c r="E43" s="8"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
-      <c r="J45" s="41" t="s">
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
+      <c r="J45" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="43"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="50"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="38"/>
-      <c r="J46" s="36" t="s">
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="42"/>
+      <c r="J46" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="38"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="42"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="J47" s="36" t="s">
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="42"/>
+      <c r="J47" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="38"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="42"/>
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="38"/>
-      <c r="J48" s="36" t="s">
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
+      <c r="J48" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="38"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="42"/>
       <c r="W48" s="14"/>
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
     </row>
     <row r="49" spans="2:26">
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-      <c r="J49" s="36" t="s">
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="42"/>
+      <c r="J49" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="38"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="42"/>
       <c r="W49" s="14"/>
       <c r="X49" s="14"/>
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
     </row>
     <row r="50" spans="2:26">
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="38"/>
-      <c r="J50" s="36" t="s">
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="42"/>
+      <c r="J50" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="38"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="42"/>
       <c r="W50" s="14"/>
       <c r="X50" s="14"/>
       <c r="Y50" s="14"/>
       <c r="Z50" s="14"/>
     </row>
     <row r="51" spans="2:26">
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="38"/>
-      <c r="J51" s="36" t="s">
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="42"/>
+      <c r="J51" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="38"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="42"/>
       <c r="W51" s="14"/>
       <c r="X51" s="14"/>
       <c r="Y51" s="14"/>
       <c r="Z51" s="14"/>
     </row>
     <row r="52" spans="2:26">
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="38"/>
-      <c r="J52" s="36" t="s">
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="42"/>
+      <c r="J52" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="38"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="42"/>
       <c r="W52" s="14"/>
       <c r="X52" s="14"/>
       <c r="Y52" s="14"/>
       <c r="Z52" s="14"/>
     </row>
     <row r="53" spans="2:26">
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="38"/>
-      <c r="J53" s="36" t="s">
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="42"/>
+      <c r="J53" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="38"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="42"/>
       <c r="W53" s="13"/>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
     </row>
     <row r="54" spans="2:26">
-      <c r="B54" s="36"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="38"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="38"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="42"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="42"/>
       <c r="W54" s="14"/>
       <c r="X54" s="14"/>
       <c r="Y54" s="14"/>
       <c r="Z54" s="14"/>
     </row>
     <row r="55" spans="2:26">
-      <c r="B55" s="36"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="38"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="38"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="42"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="42"/>
       <c r="W55" s="14"/>
       <c r="X55" s="14"/>
       <c r="Y55" s="14"/>
       <c r="Z55" s="14"/>
     </row>
     <row r="56" spans="2:26">
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="38"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="38"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="42"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="42"/>
       <c r="W56" s="13"/>
       <c r="X56" s="13"/>
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
     </row>
     <row r="57" spans="2:26">
-      <c r="B57" s="36"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="38"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="38"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="42"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="42"/>
       <c r="W57" s="13"/>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
     </row>
     <row r="58" spans="2:26">
-      <c r="B58" s="36"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="38"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="38"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="42"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="42"/>
       <c r="W58" s="13"/>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
     </row>
     <row r="59" spans="2:26">
-      <c r="B59" s="36"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="38"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="38"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="42"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="42"/>
       <c r="W59" s="13"/>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
     </row>
     <row r="60" spans="2:26">
-      <c r="B60" s="36"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="38"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="38"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="42"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="42"/>
       <c r="W60" s="13"/>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
     </row>
     <row r="61" spans="2:26">
-      <c r="B61" s="36"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="38"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="38"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="42"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="42"/>
       <c r="W61" s="13"/>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
     </row>
     <row r="62" spans="2:26">
-      <c r="B62" s="36"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="38"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="38"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="42"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="42"/>
       <c r="W62" s="15"/>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
@@ -1934,24 +1934,43 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="J62:O62"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J53:O53"/>
+    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="J55:O55"/>
+    <mergeCell ref="J56:O56"/>
+    <mergeCell ref="J57:O57"/>
+    <mergeCell ref="J58:O58"/>
+    <mergeCell ref="J59:O59"/>
+    <mergeCell ref="J60:O60"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="J61:O61"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
     <mergeCell ref="J50:O50"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="J36:K36"/>
@@ -1968,48 +1987,53 @@
     <mergeCell ref="B47:G47"/>
     <mergeCell ref="B48:G48"/>
     <mergeCell ref="L6:M33"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="J61:O61"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="J62:O62"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J53:O53"/>
-    <mergeCell ref="J54:O54"/>
-    <mergeCell ref="J55:O55"/>
-    <mergeCell ref="J56:O56"/>
-    <mergeCell ref="J57:O57"/>
-    <mergeCell ref="J58:O58"/>
-    <mergeCell ref="J59:O59"/>
-    <mergeCell ref="J60:O60"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <conditionalFormatting sqref="I22:J22">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2021,32 +2045,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -2058,6 +2058,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:G21">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2069,31 +2105,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:G20">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:G21">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="I15:I17 I13">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2105,7 +2117,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I17 I13">
+  <conditionalFormatting sqref="I11">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2117,55 +2165,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K18">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14 J14 H14 E14:F14">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2177,127 +2213,187 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12 J12 H12 E12:F12">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10 J10 H10 E10:F10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20 I18">
+    <cfRule type="colorScale" priority="203">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G18 G20 G9 G13 G11">
+    <cfRule type="colorScale" priority="219">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:K33 K22:K25 A23:D23 E26:K26 A28:J28 E27:J27 E22:H25 A24 A26 J23:J25 A5:E5 E6:L6 A20:E21 A29:K29 H7:K7 E7:F9 E30:K31 I8:K8 H9 J9:K9 J13 K11 N6:N9 J15:J18 J20 H15:H18 H20 E15:F19 N13 H13 E13:F13 N11 H11 E11:F11 A30:A31 N15:N20">
+    <cfRule type="colorScale" priority="224">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14 J14 H14 E14:F14">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I19">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12 J12 H12 E12:F12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10 J10 H10 E10:F10">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2309,56 +2405,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="J19 H19">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G19 G9 G13 G11">
-    <cfRule type="colorScale" priority="175">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:K33 K22:K25 A23:D23 E26:K26 A28:J28 E27:J27 E22:H25 A24 A26 J23:J25 A5:E5 E6:L6 A20:E21 A29:K29 H7:K7 E7:F9 H20:K20 I8:K8 H9 J9:K9 J13 K11 N6:N9 N15:N20 J15:J19 H15:H19 E15:F19 N13 H13 E13:F13 N11 H11 E11:F11 A30:A31 E30:K31">
-    <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>

--- a/Documentatie/Planning + Taakverdeling.xlsx
+++ b/Documentatie/Planning + Taakverdeling.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="240" windowWidth="24240" windowHeight="12465"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Onderdeel:</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Analyse 1 (Do)</t>
   </si>
   <si>
-    <t>Inleveren kleur anders?</t>
-  </si>
-  <si>
     <t>&gt;&gt; opdrachtbeschrijving, globale (ruwe) taakverdeling en planning en mijlpalen, testplan, Eisen / wensen overzicht (tabel 'versimpelen'?)</t>
   </si>
   <si>
@@ -251,13 +248,19 @@
   </si>
   <si>
     <t>Yme, *N.N.B*</t>
+  </si>
+  <si>
+    <t>&lt;&lt; Rollenverdeling</t>
+  </si>
+  <si>
+    <t>Inleveren / vindt plaats</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,8 +313,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +409,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -461,13 +476,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -589,12 +605,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="4" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -621,9 +641,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -661,7 +681,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -695,6 +715,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -729,9 +750,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -904,16 +926,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
@@ -930,7 +952,7 @@
       <c r="J1" s="35"/>
       <c r="K1" s="35"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -938,7 +960,7 @@
       <c r="E3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
@@ -951,7 +973,7 @@
       </c>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -988,7 +1010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>17</v>
       </c>
@@ -996,7 +1018,7 @@
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1009,7 +1031,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>18</v>
       </c>
@@ -1018,7 +1040,7 @@
       <c r="D7" s="34"/>
       <c r="E7" s="2"/>
       <c r="F7" s="26"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1028,7 +1050,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>19</v>
       </c>
@@ -1038,7 +1060,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="26"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1047,7 +1069,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>19</v>
       </c>
@@ -1058,7 +1080,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="51"/>
@@ -1066,7 +1088,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>25</v>
       </c>
@@ -1077,7 +1099,7 @@
       <c r="F10" s="26"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="56"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="51"/>
@@ -1085,7 +1107,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>19</v>
       </c>
@@ -1097,14 +1119,14 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="2"/>
       <c r="L11" s="51"/>
       <c r="M11" s="51"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>24</v>
       </c>
@@ -1116,17 +1138,14 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="2"/>
       <c r="L12" s="51"/>
       <c r="M12" s="51"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="S12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>19</v>
       </c>
@@ -1139,13 +1158,13 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="56"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>26</v>
       </c>
@@ -1158,13 +1177,13 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>21</v>
       </c>
@@ -1180,10 +1199,10 @@
       <c r="K15" s="2"/>
       <c r="L15" s="51"/>
       <c r="M15" s="51"/>
-      <c r="N15" s="3"/>
+      <c r="N15" s="56"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>23</v>
       </c>
@@ -1200,9 +1219,9 @@
       <c r="L16" s="51"/>
       <c r="M16" s="51"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="O16" s="56"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>22</v>
       </c>
@@ -1219,9 +1238,9 @@
       <c r="L17" s="51"/>
       <c r="M17" s="51"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="O17" s="56"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
@@ -1238,7 +1257,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -1255,7 +1274,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>10</v>
       </c>
@@ -1272,9 +1291,9 @@
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="O20" s="56"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -1291,7 +1310,7 @@
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
@@ -1308,7 +1327,7 @@
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>11</v>
       </c>
@@ -1325,15 +1344,15 @@
       <c r="L23" s="51"/>
       <c r="M23" s="51"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
+      <c r="O23" s="57"/>
       <c r="S23" t="s">
         <v>14</v>
       </c>
       <c r="U23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -1350,7 +1369,7 @@
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
@@ -1367,7 +1386,7 @@
       <c r="N25" s="27"/>
       <c r="O25" s="28"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>12</v>
       </c>
@@ -1384,9 +1403,9 @@
       <c r="L26" s="51"/>
       <c r="M26" s="51"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="O26" s="57"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -1403,10 +1422,10 @@
       <c r="N27" s="33"/>
       <c r="O27" s="33"/>
       <c r="S27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -1426,7 +1445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>13</v>
       </c>
@@ -1438,14 +1457,14 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="51"/>
       <c r="M29" s="51"/>
-      <c r="N29" s="12"/>
+      <c r="N29" s="57"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>29</v>
       </c>
@@ -1454,7 +1473,7 @@
       <c r="D30" s="46"/>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
@@ -1464,7 +1483,7 @@
       <c r="N30" s="31"/>
       <c r="O30" s="28"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
         <v>28</v>
       </c>
@@ -1473,7 +1492,7 @@
       <c r="D31" s="46"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
@@ -1483,7 +1502,7 @@
       <c r="N31" s="31"/>
       <c r="O31" s="28"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>27</v>
       </c>
@@ -1492,7 +1511,7 @@
       <c r="D32" s="47"/>
       <c r="E32" s="26"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
@@ -1502,9 +1521,9 @@
       <c r="N32" s="27"/>
       <c r="O32" s="28"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
@@ -1514,45 +1533,51 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="51"/>
       <c r="M33" s="51"/>
-      <c r="N33" s="12"/>
+      <c r="N33" s="57"/>
       <c r="O33" s="28"/>
       <c r="S33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="36" spans="1:26">
-      <c r="C36" s="5"/>
-      <c r="D36" s="35" t="s">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="35" t="s">
+      <c r="D36" s="35"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="35"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="35" t="s">
+      <c r="G36" s="35"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K36" s="35"/>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="J36" s="35"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="S39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
         <v>6</v>
       </c>
@@ -1561,14 +1586,14 @@
       <c r="D42" s="38"/>
       <c r="E42" s="38"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B45" s="48" t="s">
         <v>9</v>
       </c>
@@ -1586,7 +1611,7 @@
       <c r="N45" s="49"/>
       <c r="O45" s="50"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B46" s="40" t="s">
         <v>17</v>
       </c>
@@ -1596,7 +1621,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="42"/>
       <c r="J46" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K46" s="41"/>
       <c r="L46" s="41"/>
@@ -1604,9 +1629,9 @@
       <c r="N46" s="41"/>
       <c r="O46" s="42"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B47" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="41"/>
@@ -1614,21 +1639,24 @@
       <c r="F47" s="41"/>
       <c r="G47" s="42"/>
       <c r="J47" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K47" s="41"/>
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
       <c r="N47" s="41"/>
       <c r="O47" s="42"/>
+      <c r="S47" t="s">
+        <v>47</v>
+      </c>
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B48" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="41"/>
       <c r="D48" s="41"/>
@@ -1636,21 +1664,24 @@
       <c r="F48" s="41"/>
       <c r="G48" s="42"/>
       <c r="J48" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K48" s="41"/>
       <c r="L48" s="41"/>
       <c r="M48" s="41"/>
       <c r="N48" s="41"/>
       <c r="O48" s="42"/>
+      <c r="S48" t="s">
+        <v>47</v>
+      </c>
       <c r="W48" s="14"/>
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
     </row>
-    <row r="49" spans="2:26">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B49" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="41"/>
       <c r="D49" s="41"/>
@@ -1658,21 +1689,24 @@
       <c r="F49" s="41"/>
       <c r="G49" s="42"/>
       <c r="J49" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K49" s="41"/>
       <c r="L49" s="41"/>
       <c r="M49" s="41"/>
       <c r="N49" s="41"/>
       <c r="O49" s="42"/>
+      <c r="S49" t="s">
+        <v>47</v>
+      </c>
       <c r="W49" s="14"/>
       <c r="X49" s="14"/>
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
     </row>
-    <row r="50" spans="2:26">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B50" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="41"/>
       <c r="D50" s="41"/>
@@ -1680,21 +1714,24 @@
       <c r="F50" s="41"/>
       <c r="G50" s="42"/>
       <c r="J50" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K50" s="41"/>
       <c r="L50" s="41"/>
       <c r="M50" s="41"/>
       <c r="N50" s="41"/>
       <c r="O50" s="42"/>
+      <c r="S50" t="s">
+        <v>47</v>
+      </c>
       <c r="W50" s="14"/>
       <c r="X50" s="14"/>
       <c r="Y50" s="14"/>
       <c r="Z50" s="14"/>
     </row>
-    <row r="51" spans="2:26">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B51" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="41"/>
       <c r="D51" s="41"/>
@@ -1702,7 +1739,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="42"/>
       <c r="J51" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51" s="41"/>
       <c r="L51" s="41"/>
@@ -1714,9 +1751,9 @@
       <c r="Y51" s="14"/>
       <c r="Z51" s="14"/>
     </row>
-    <row r="52" spans="2:26">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B52" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="41"/>
       <c r="D52" s="41"/>
@@ -1724,7 +1761,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="42"/>
       <c r="J52" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K52" s="41"/>
       <c r="L52" s="41"/>
@@ -1736,9 +1773,9 @@
       <c r="Y52" s="14"/>
       <c r="Z52" s="14"/>
     </row>
-    <row r="53" spans="2:26">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B53" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" s="41"/>
       <c r="D53" s="41"/>
@@ -1746,7 +1783,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="42"/>
       <c r="J53" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53" s="41"/>
       <c r="L53" s="41"/>
@@ -1758,7 +1795,7 @@
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
     </row>
-    <row r="54" spans="2:26">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B54" s="40"/>
       <c r="C54" s="41"/>
       <c r="D54" s="41"/>
@@ -1776,7 +1813,7 @@
       <c r="Y54" s="14"/>
       <c r="Z54" s="14"/>
     </row>
-    <row r="55" spans="2:26">
+    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B55" s="40"/>
       <c r="C55" s="41"/>
       <c r="D55" s="41"/>
@@ -1794,7 +1831,7 @@
       <c r="Y55" s="14"/>
       <c r="Z55" s="14"/>
     </row>
-    <row r="56" spans="2:26">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B56" s="40"/>
       <c r="C56" s="41"/>
       <c r="D56" s="41"/>
@@ -1812,7 +1849,7 @@
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
     </row>
-    <row r="57" spans="2:26">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B57" s="40"/>
       <c r="C57" s="41"/>
       <c r="D57" s="41"/>
@@ -1830,7 +1867,7 @@
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
     </row>
-    <row r="58" spans="2:26">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B58" s="40"/>
       <c r="C58" s="41"/>
       <c r="D58" s="41"/>
@@ -1848,7 +1885,7 @@
       <c r="Y58" s="13"/>
       <c r="Z58" s="13"/>
     </row>
-    <row r="59" spans="2:26">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B59" s="40"/>
       <c r="C59" s="41"/>
       <c r="D59" s="41"/>
@@ -1866,7 +1903,7 @@
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
     </row>
-    <row r="60" spans="2:26">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B60" s="40"/>
       <c r="C60" s="41"/>
       <c r="D60" s="41"/>
@@ -1884,7 +1921,7 @@
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
     </row>
-    <row r="61" spans="2:26">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B61" s="40"/>
       <c r="C61" s="41"/>
       <c r="D61" s="41"/>
@@ -1902,7 +1939,7 @@
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
     </row>
-    <row r="62" spans="2:26">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B62" s="40"/>
       <c r="C62" s="41"/>
       <c r="D62" s="41"/>
@@ -1920,32 +1957,30 @@
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
     </row>
-    <row r="63" spans="2:26">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
       <c r="W63" s="14"/>
       <c r="X63" s="14"/>
       <c r="Y63" s="14"/>
       <c r="Z63" s="14"/>
     </row>
-    <row r="64" spans="2:26">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
       <c r="W64" s="14"/>
       <c r="X64" s="14"/>
       <c r="Y64" s="14"/>
       <c r="Z64" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A20:D20"/>
+  <mergeCells count="75">
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="J62:O62"/>
     <mergeCell ref="B60:G60"/>
@@ -1959,21 +1994,23 @@
     <mergeCell ref="J56:O56"/>
     <mergeCell ref="J57:O57"/>
     <mergeCell ref="J58:O58"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="J61:O61"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
     <mergeCell ref="J59:O59"/>
     <mergeCell ref="J60:O60"/>
     <mergeCell ref="B56:G56"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="B59:G59"/>
-    <mergeCell ref="J61:O61"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
     <mergeCell ref="J50:O50"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="J36:K36"/>
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="J45:O45"/>
@@ -1981,7 +2018,6 @@
     <mergeCell ref="J47:O47"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="J49:O49"/>
-    <mergeCell ref="G36:H36"/>
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="B46:G46"/>
     <mergeCell ref="B47:G47"/>
@@ -1992,7 +2028,6 @@
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="D36:E36"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A24:D24"/>
@@ -2000,21 +2035,24 @@
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="I22:J22">
     <cfRule type="colorScale" priority="50">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2024,9 +2062,9 @@
   <conditionalFormatting sqref="H23">
     <cfRule type="colorScale" priority="47">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2036,9 +2074,9 @@
   <conditionalFormatting sqref="H24">
     <cfRule type="colorScale" priority="46">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2048,9 +2086,9 @@
   <conditionalFormatting sqref="H25">
     <cfRule type="colorScale" priority="45">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2060,9 +2098,9 @@
   <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="37">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2072,9 +2110,9 @@
   <conditionalFormatting sqref="F20">
     <cfRule type="colorScale" priority="35">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2084,9 +2122,9 @@
   <conditionalFormatting sqref="F21:G21">
     <cfRule type="colorScale" priority="34">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2096,9 +2134,9 @@
   <conditionalFormatting sqref="G8">
     <cfRule type="colorScale" priority="33">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2108,9 +2146,9 @@
   <conditionalFormatting sqref="I15:I17 I13">
     <cfRule type="colorScale" priority="29">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2120,9 +2158,9 @@
   <conditionalFormatting sqref="I11">
     <cfRule type="colorScale" priority="28">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2132,9 +2170,9 @@
   <conditionalFormatting sqref="K15">
     <cfRule type="colorScale" priority="27">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2144,9 +2182,9 @@
   <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="26">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2156,9 +2194,9 @@
   <conditionalFormatting sqref="K17">
     <cfRule type="colorScale" priority="25">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2168,9 +2206,9 @@
   <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2180,9 +2218,9 @@
   <conditionalFormatting sqref="K20">
     <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2192,9 +2230,9 @@
   <conditionalFormatting sqref="N14 J14 H14 E14:F14">
     <cfRule type="colorScale" priority="17">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2204,9 +2242,9 @@
   <conditionalFormatting sqref="G14">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2216,9 +2254,9 @@
   <conditionalFormatting sqref="K14">
     <cfRule type="colorScale" priority="15">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2228,21 +2266,21 @@
   <conditionalFormatting sqref="I14">
     <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12 J12 H12 E12:F12">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12 N12 H12 E12:F12">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2252,9 +2290,9 @@
   <conditionalFormatting sqref="I12">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2264,9 +2302,9 @@
   <conditionalFormatting sqref="G12">
     <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2276,21 +2314,21 @@
   <conditionalFormatting sqref="K12">
     <cfRule type="colorScale" priority="12">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10 J10 H10 E10:F10">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10 N10 H10 E10:F10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2300,9 +2338,9 @@
   <conditionalFormatting sqref="I10">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2312,9 +2350,9 @@
   <conditionalFormatting sqref="G10">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2324,9 +2362,9 @@
   <conditionalFormatting sqref="K10">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2336,9 +2374,9 @@
   <conditionalFormatting sqref="I20 I18">
     <cfRule type="colorScale" priority="203">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2348,21 +2386,21 @@
   <conditionalFormatting sqref="G15:G18 G20 G9 G13 G11">
     <cfRule type="colorScale" priority="219">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:K33 K22:K25 A23:D23 E26:K26 A28:J28 E27:J27 E22:H25 A24 A26 J23:J25 A5:E5 E6:L6 A20:E21 A29:K29 H7:K7 E7:F9 E30:K31 I8:K8 H9 J9:K9 J13 K11 N6:N9 J15:J18 J20 H15:H18 H20 E15:F19 N13 H13 E13:F13 N11 H11 E11:F11 A30:A31 N15:N20">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:K33 K22:K25 A23:D23 E26:K26 A28:J28 E27:J27 E22:H25 A24 A26 J23:J25 A5:E5 E6:L6 A20:E21 A29:K29 H7:K7 E7:F9 I8:K8 H9 J9:K9 J13 K11 N6:N9 J15:J18 J20 H15:H18 H20 E15:F19 N13 H13 E13:F13 N11 H11 E11:F11 A30:A31 N15:N20 E30:K31">
     <cfRule type="colorScale" priority="224">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2372,9 +2410,9 @@
   <conditionalFormatting sqref="K19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2384,9 +2422,9 @@
   <conditionalFormatting sqref="I19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2396,21 +2434,21 @@
   <conditionalFormatting sqref="G19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19 H19">
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19 J19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2423,14 +2461,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28:G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2438,12 +2476,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
